--- a/Docs/Resultados.xlsx
+++ b/Docs/Resultados.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oier\Documents\Uni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oier\Desktop\TFG\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71056D70-F5F6-4A9A-946B-9009C2588277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCE8DD9-B377-4FD4-A697-73A3E043A36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01D94149-3744-4B0D-BD6F-37A5A8AA1927}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{01D94149-3744-4B0D-BD6F-37A5A8AA1927}"/>
   </bookViews>
   <sheets>
     <sheet name="Rendimiento" sheetId="1" r:id="rId1"/>
+    <sheet name="Datasets" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Iris</t>
   </si>
@@ -84,6 +85,72 @@
   </si>
   <si>
     <t>FARC-HD Local</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>#Atr.</t>
+  </si>
+  <si>
+    <t>iri</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>pima</t>
+  </si>
+  <si>
+    <t>yst</t>
+  </si>
+  <si>
+    <t>yeast</t>
+  </si>
+  <si>
+    <t>pag</t>
+  </si>
+  <si>
+    <t>pageblocks</t>
+  </si>
+  <si>
+    <t>ecoli</t>
+  </si>
+  <si>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>penbased</t>
+  </si>
+  <si>
+    <t>mag</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>clv</t>
+  </si>
+  <si>
+    <t>cleveland</t>
+  </si>
+  <si>
+    <t>#Clas.</t>
+  </si>
+  <si>
+    <t>#Ej.</t>
+  </si>
+  <si>
+    <t>id.</t>
   </si>
 </sst>
 </file>
@@ -272,66 +339,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A29AC6-A075-4882-9928-4C14C2F21FD5}">
   <dimension ref="B3:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -660,223 +731,218 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="24" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="25" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="16"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="6"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="6"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="6"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="6"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="6"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="6"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="6"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="13"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B3:C4"/>
@@ -885,8 +951,229 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D329D1-F5AF-4CCB-A95A-B739CCF3B4D3}">
+  <dimension ref="A3:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="30">
+        <v>297</v>
+      </c>
+      <c r="E4" s="30">
+        <v>13</v>
+      </c>
+      <c r="F4" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="30">
+        <v>336</v>
+      </c>
+      <c r="E5" s="30">
+        <v>7</v>
+      </c>
+      <c r="F5" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="30">
+        <v>150</v>
+      </c>
+      <c r="E6" s="30">
+        <v>4</v>
+      </c>
+      <c r="F6" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="30">
+        <v>19020</v>
+      </c>
+      <c r="E7" s="30">
+        <v>10</v>
+      </c>
+      <c r="F7" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="30">
+        <v>5472</v>
+      </c>
+      <c r="E8" s="30">
+        <v>10</v>
+      </c>
+      <c r="F8" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="30">
+        <v>10992</v>
+      </c>
+      <c r="E9" s="30">
+        <v>16</v>
+      </c>
+      <c r="F9" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="30">
+        <v>768</v>
+      </c>
+      <c r="E10" s="30">
+        <v>8</v>
+      </c>
+      <c r="F10" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="30">
+        <v>178</v>
+      </c>
+      <c r="E11" s="30">
+        <v>13</v>
+      </c>
+      <c r="F11" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1484</v>
+      </c>
+      <c r="E12" s="30">
+        <v>8</v>
+      </c>
+      <c r="F12" s="30">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/Resultados.xlsx
+++ b/Docs/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oier\Desktop\TFG\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCE8DD9-B377-4FD4-A697-73A3E043A36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A63D54B-13AF-4714-8E71-07D4D672E0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{01D94149-3744-4B0D-BD6F-37A5A8AA1927}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Iris</t>
   </si>
@@ -151,13 +151,90 @@
   </si>
   <si>
     <t>id.</t>
+  </si>
+  <si>
+    <t>Parámetros</t>
+  </si>
+  <si>
+    <t>Número de etiquetas lingüisticas por variable: 5</t>
+  </si>
+  <si>
+    <t>Soporte mínimo: 0.05</t>
+  </si>
+  <si>
+    <t>Confianza mínima: 0.8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Parámetro </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 2</t>
+    </r>
+  </si>
+  <si>
+    <t>Número máximo de evaluaciones: 20000</t>
+  </si>
+  <si>
+    <t>Número de individuos: 50</t>
+  </si>
+  <si>
+    <t>Bits por gen: 30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Parámetro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0.02</t>
+    </r>
+  </si>
+  <si>
+    <t>Inferencia: 1 (Combinación aditiva)</t>
+  </si>
+  <si>
+    <t>Profundidad máxima Árbol: 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +249,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,45 +454,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,27 +822,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
@@ -779,10 +870,10 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -794,10 +885,10 @@
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -809,10 +900,10 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -824,10 +915,10 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -839,10 +930,10 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -854,10 +945,10 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -869,10 +960,10 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -884,10 +975,10 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -899,10 +990,10 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="11"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -927,10 +1018,10 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="7"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -943,6 +1034,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B3:C4"/>
@@ -951,11 +1047,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -964,36 +1055,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D329D1-F5AF-4CCB-A95A-B739CCF3B4D3}">
-  <dimension ref="A3:F12"/>
+  <dimension ref="A3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H3" sqref="H3:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="H3" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1002,18 +1097,22 @@
       <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="18">
         <v>297</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="18">
         <v>13</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -1022,18 +1121,21 @@
       <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="18">
         <v>336</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="18">
         <v>7</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="18">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -1042,18 +1144,21 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="18">
         <v>150</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="18">
         <v>4</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1062,18 +1167,21 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="18">
         <v>19020</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="18">
         <v>10</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -1082,18 +1190,21 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="18">
         <v>5472</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="18">
         <v>10</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1102,18 +1213,21 @@
       <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="18">
         <v>10992</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="18">
         <v>16</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -1122,18 +1236,21 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="18">
         <v>768</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="18">
         <v>8</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -1142,18 +1259,21 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="18">
         <v>178</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="18">
         <v>13</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>9</v>
       </c>
       <c r="B12" t="s">
@@ -1162,14 +1282,22 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="18">
         <v>1484</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="18">
         <v>8</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="18">
         <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Resultados.xlsx
+++ b/Docs/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oier\Desktop\TFG\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TFG\TFG\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A63D54B-13AF-4714-8E71-07D4D672E0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B89C1E-2817-4465-8153-D0E56C01D7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{01D94149-3744-4B0D-BD6F-37A5A8AA1927}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01D94149-3744-4B0D-BD6F-37A5A8AA1927}"/>
   </bookViews>
   <sheets>
     <sheet name="Rendimiento" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Iris</t>
   </si>
@@ -229,12 +229,21 @@
   <si>
     <t>Profundidad máxima Árbol: 3</t>
   </si>
+  <si>
+    <t>Inferencia Suma de Grados (1)</t>
+  </si>
+  <si>
+    <t>Inferencia maximo (0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,13 +273,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -427,23 +449,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,6 +469,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,18 +506,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -808,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A29AC6-A075-4882-9928-4C14C2F21FD5}">
-  <dimension ref="B3:L15"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,224 +864,795 @@
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+    </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="30" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="10"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="22">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0</v>
+      </c>
+      <c r="G5" s="40">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="22">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J5" s="23">
+        <v>1</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0</v>
+      </c>
+      <c r="L5" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="20">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="F6" s="32">
+        <v>4.6296296296296294E-5</v>
+      </c>
+      <c r="G6" s="33">
+        <v>4.6296296296296294E-5</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="20">
+        <v>0.92164000000000001</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0.80881999999999998</v>
+      </c>
+      <c r="K6" s="28">
+        <v>2.5462962962962961E-4</v>
+      </c>
+      <c r="L6" s="29">
+        <v>2.5462962962962961E-4</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="20">
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.75319999999999998</v>
+      </c>
+      <c r="F7" s="32">
+        <v>1.6203703703703703E-4</v>
+      </c>
+      <c r="G7" s="33">
+        <v>1.5046296296296297E-4</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="20">
+        <v>0.82735999999999998</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0.77922000000000002</v>
+      </c>
+      <c r="K7" s="28">
+        <v>4.3981481481481481E-4</v>
+      </c>
+      <c r="L7" s="29">
+        <v>4.2824074074074075E-4</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="20">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F8" s="32">
+        <v>2.4305555555555552E-4</v>
+      </c>
+      <c r="G8" s="33">
+        <v>2.4305555555555552E-4</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="34">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="K8" s="28">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="L8" s="29">
+        <v>5.7870370370370378E-4</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="20">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.96362999999999999</v>
+      </c>
+      <c r="F9" s="32">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="G9" s="33">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="20">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="K9" s="28">
+        <v>2.5462962962962961E-4</v>
+      </c>
+      <c r="L9" s="29">
+        <v>2.5462962962962961E-4</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="20">
+        <v>1</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="K10" s="32">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="L10" s="33">
+        <v>2.0833333333333335E-4</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="20">
+        <v>0.98977000000000004</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="F11" s="35">
+        <v>1.1805555555555556E-3</v>
+      </c>
+      <c r="G11" s="36">
+        <v>1.1342592592592591E-3</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="20">
+        <v>0.9909</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="K11" s="28">
+        <v>3.4027777777777784E-3</v>
+      </c>
+      <c r="L11" s="29">
+        <v>3.3449074074074071E-3</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="20">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="F12" s="35">
+        <v>4.5138888888888892E-4</v>
+      </c>
+      <c r="G12" s="36">
+        <v>4.3981481481481481E-4</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="20">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="K12" s="28">
+        <v>8.9120370370370362E-4</v>
+      </c>
+      <c r="L12" s="29">
+        <v>8.7962962962962962E-4</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="24">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="37">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="G13" s="38">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="24">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0.61660000000000004</v>
+      </c>
+      <c r="K13" s="30">
+        <v>1.2962962962962963E-3</v>
+      </c>
+      <c r="L13" s="31">
+        <v>1.2847222222222223E-3</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="8"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="41">
+        <f>AVERAGE(D5:D13)</f>
+        <v>0.89813000000000009</v>
+      </c>
+      <c r="E15" s="43">
+        <f t="shared" ref="E15:J15" si="0">AVERAGE(E5:E13)</f>
+        <v>0.83033666666666661</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="45">
+        <f>AVERAGE(G5:G13)</f>
+        <v>2.3533950617283947E-4</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="41">
+        <f t="shared" si="0"/>
+        <v>0.89586666666666659</v>
+      </c>
+      <c r="J15" s="43">
+        <f t="shared" si="0"/>
+        <v>0.81765999999999994</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="45">
+        <f>AVERAGE(L5:L13)</f>
+        <v>8.0375514403292173E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="22">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0</v>
+      </c>
+      <c r="G20" s="40">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="22">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J20" s="23">
+        <v>1</v>
+      </c>
+      <c r="K20" s="26">
+        <v>0</v>
+      </c>
+      <c r="L20" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="20">
+        <v>0.91417899999999996</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.69116999999999995</v>
+      </c>
+      <c r="F21" s="32">
+        <v>4.6296296296296294E-5</v>
+      </c>
+      <c r="G21" s="33">
+        <v>4.6296296296296294E-5</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="20">
+        <v>0.92537000000000003</v>
+      </c>
+      <c r="J21" s="21">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="K21" s="28">
+        <v>2.5462962962962961E-4</v>
+      </c>
+      <c r="L21" s="29">
+        <v>2.5462962962962961E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="20">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="F22" s="32">
+        <v>1.6203703703703703E-4</v>
+      </c>
+      <c r="G22" s="33">
+        <v>1.5046296296296297E-4</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="20">
+        <v>0.83875999999999995</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0.75973999999999997</v>
+      </c>
+      <c r="K22" s="28">
+        <v>4.3981481481481481E-4</v>
+      </c>
+      <c r="L22" s="29">
+        <v>4.3981481481481481E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="20">
+        <v>0.63183999999999996</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0.57238999999999995</v>
+      </c>
+      <c r="F23" s="32">
+        <v>2.8935185185185189E-4</v>
+      </c>
+      <c r="G23" s="33">
+        <v>2.7777777777777778E-4</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="34">
+        <v>0.63437200000000005</v>
+      </c>
+      <c r="J23" s="21">
+        <v>0.57911999999999997</v>
+      </c>
+      <c r="K23" s="28">
+        <v>5.6712962962962956E-4</v>
+      </c>
+      <c r="L23" s="29">
+        <v>5.5555555555555556E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="20">
+        <v>0.96347000000000005</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0.97272700000000001</v>
+      </c>
+      <c r="F24" s="32">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="G24" s="33">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="20">
+        <v>0.96575299999999997</v>
+      </c>
+      <c r="J24" s="21">
+        <v>0.96363600000000005</v>
+      </c>
+      <c r="K24" s="28">
+        <v>2.5462962962962961E-4</v>
+      </c>
+      <c r="L24" s="29">
+        <v>2.5462962962962961E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="20">
+        <v>1</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0.88888</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0</v>
+      </c>
+      <c r="G25" s="33">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="20">
+        <v>1</v>
+      </c>
+      <c r="J25" s="21">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="K25" s="32">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="L25" s="33">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="20">
+        <v>0.98522699999999996</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="F26" s="35">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="G26" s="36">
+        <v>5.4398148148148144E-4</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="20">
+        <v>0.98409000000000002</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0.89545399999999997</v>
+      </c>
+      <c r="K26" s="28">
+        <v>3.1712962962962958E-3</v>
+      </c>
+      <c r="L26" s="29">
+        <v>3.1134259259259257E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="20">
+        <v>0.83103000000000005</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0.80313999999999997</v>
+      </c>
+      <c r="F27" s="35">
+        <v>4.0509259259259258E-4</v>
+      </c>
+      <c r="G27" s="36">
+        <v>4.0509259259259258E-4</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="20">
+        <v>0.83431900000000003</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="K27" s="28">
+        <v>9.7222222222222209E-4</v>
+      </c>
+      <c r="L27" s="29">
+        <v>9.6064814814814808E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="24">
+        <v>0.91139000000000003</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0.56666000000000005</v>
+      </c>
+      <c r="F28" s="37">
+        <v>1.6203703703703703E-4</v>
+      </c>
+      <c r="G28" s="38">
+        <v>1.5046296296296297E-4</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="24">
+        <v>0.89451000000000003</v>
+      </c>
+      <c r="J28" s="25">
+        <v>0.56666000000000005</v>
+      </c>
+      <c r="K28" s="30">
+        <v>1.2731481481481483E-3</v>
+      </c>
+      <c r="L28" s="31">
+        <v>1.261574074074074E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="41">
+        <f>AVERAGE(D20:D28)</f>
+        <v>0.89544844444444449</v>
+      </c>
+      <c r="E30" s="43">
+        <f t="shared" ref="E30:J30" si="1">AVERAGE(E20:E28)</f>
+        <v>0.8010963333333333</v>
+      </c>
+      <c r="F30" s="42"/>
+      <c r="G30" s="45">
+        <f>AVERAGE(G20:G28)</f>
+        <v>1.7618312757201643E-4</v>
+      </c>
+      <c r="H30" s="42"/>
+      <c r="I30" s="41">
+        <f t="shared" ref="I30:L30" si="2">AVERAGE(I20:I28)</f>
+        <v>0.89468600000000009</v>
+      </c>
+      <c r="J30" s="43">
+        <f t="shared" si="2"/>
+        <v>0.80632333333333328</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="45">
+        <f>AVERAGE(L20:L28)</f>
+        <v>7.831790123456789E-4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+  <mergeCells count="28">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B3:C4"/>
@@ -1047,6 +1661,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1057,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D329D1-F5AF-4CCB-A95A-B739CCF3B4D3}">
   <dimension ref="A3:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,27 +1687,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1097,22 +1716,22 @@
       <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="7">
         <v>297</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="7">
         <v>13</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="7">
         <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -1121,13 +1740,13 @@
       <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="7">
         <v>336</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="7">
         <v>7</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="7">
         <v>8</v>
       </c>
       <c r="H5" t="s">
@@ -1135,7 +1754,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -1144,13 +1763,13 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="7">
         <v>150</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="7">
         <v>4</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="7">
         <v>3</v>
       </c>
       <c r="H6" t="s">
@@ -1158,7 +1777,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1167,13 +1786,13 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="7">
         <v>19020</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="7">
         <v>10</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
@@ -1181,7 +1800,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -1190,13 +1809,13 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="7">
         <v>5472</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="7">
         <v>10</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="7">
         <v>5</v>
       </c>
       <c r="H8" t="s">
@@ -1204,7 +1823,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1213,13 +1832,13 @@
       <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="7">
         <v>10992</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="7">
         <v>16</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="7">
         <v>10</v>
       </c>
       <c r="H9" t="s">
@@ -1227,7 +1846,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -1236,13 +1855,13 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="7">
         <v>768</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="7">
         <v>8</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="7">
         <v>2</v>
       </c>
       <c r="H10" t="s">
@@ -1250,7 +1869,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -1259,13 +1878,13 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="7">
         <v>178</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="7">
         <v>13</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="7">
         <v>3</v>
       </c>
       <c r="H11" t="s">
@@ -1273,7 +1892,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
       <c r="B12" t="s">
@@ -1282,13 +1901,13 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="7">
         <v>1484</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="7">
         <v>8</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="7">
         <v>10</v>
       </c>
       <c r="H12" t="s">

--- a/Docs/Resultados.xlsx
+++ b/Docs/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TFG\TFG\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oier\Desktop\TFG\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B89C1E-2817-4465-8153-D0E56C01D7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A67184D-CEFD-453F-891D-3A7FCB39A20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01D94149-3744-4B0D-BD6F-37A5A8AA1927}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01D94149-3744-4B0D-BD6F-37A5A8AA1927}"/>
   </bookViews>
   <sheets>
     <sheet name="Rendimiento" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>Iris</t>
   </si>
@@ -235,13 +235,22 @@
   <si>
     <t>Inferencia maximo (0)</t>
   </si>
+  <si>
+    <t>Nº iteraciones = n_variables*5000</t>
+  </si>
+  <si>
+    <t>Nº iteraciones = 20000</t>
+  </si>
+  <si>
+    <t>L modificado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -295,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -448,12 +457,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -466,45 +499,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -512,14 +508,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -527,15 +523,85 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A29AC6-A075-4882-9928-4C14C2F21FD5}">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B3:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,808 +930,1121 @@
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D2" s="44" t="s">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F3" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="O3" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="47"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D4" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="T4" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="35"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="8" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="2" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="N5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="S5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+    </row>
+    <row r="6" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="2" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="22">
+      <c r="N6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="9">
         <v>0.97499999999999998</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="39">
-        <v>0</v>
-      </c>
-      <c r="G5" s="40">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="22">
+      <c r="F7" s="26">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="9">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J7" s="10">
         <v>1</v>
       </c>
-      <c r="K5" s="26">
-        <v>0</v>
-      </c>
-      <c r="L5" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="20">
+      <c r="C8" s="33"/>
+      <c r="D8" s="7">
         <v>0.92910000000000004</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E8" s="8">
         <v>0.83819999999999995</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F8" s="19">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G8" s="20">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="20">
+      <c r="H8" s="1"/>
+      <c r="I8" s="7">
         <v>0.92164000000000001</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J8" s="8">
         <v>0.80881999999999998</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K8" s="15">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L8" s="16">
         <v>2.5462962962962961E-4</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="15">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="20">
+      <c r="C9" s="33"/>
+      <c r="D9" s="7">
         <v>0.82569999999999999</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E9" s="8">
         <v>0.75319999999999998</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F9" s="19">
         <v>1.6203703703703703E-4</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G9" s="20">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="20">
+      <c r="H9" s="1"/>
+      <c r="I9" s="7">
         <v>0.82735999999999998</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J9" s="8">
         <v>0.77922000000000002</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K9" s="15">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L9" s="16">
         <v>4.2824074074074075E-4</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0</v>
+      </c>
+      <c r="U9" s="15">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="20">
+      <c r="C10" s="33"/>
+      <c r="D10" s="7">
         <v>0.64700000000000002</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E10" s="8">
         <v>0.60599999999999998</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F10" s="19">
         <v>2.4305555555555552E-4</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G10" s="20">
         <v>2.4305555555555552E-4</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="34">
+      <c r="H10" s="1"/>
+      <c r="I10" s="21">
         <v>0.65200000000000002</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J10" s="8">
         <v>0.61270000000000002</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K10" s="15">
         <v>5.9027777777777778E-4</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L10" s="16">
         <v>5.7870370370370378E-4</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="N10" s="21">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0</v>
+      </c>
+      <c r="S10" s="21">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0</v>
+      </c>
+      <c r="V10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="20">
+      <c r="C11" s="33"/>
+      <c r="D11" s="7">
         <v>0.96340000000000003</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E11" s="8">
         <v>0.96362999999999999</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F11" s="19">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G11" s="20">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="20">
+      <c r="H11" s="1"/>
+      <c r="I11" s="7">
         <v>0.96799999999999997</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J11" s="8">
         <v>0.94540000000000002</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K11" s="15">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L11" s="16">
         <v>2.5462962962962961E-4</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0</v>
+      </c>
+      <c r="V11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="20">
+      <c r="C12" s="33"/>
+      <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E12" s="8">
         <v>0.94440000000000002</v>
       </c>
-      <c r="F10" s="32">
-        <v>0</v>
-      </c>
-      <c r="G10" s="33">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="20">
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="7">
         <v>1</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J12" s="8">
         <v>0.86109999999999998</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K12" s="19">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L12" s="20">
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0</v>
+      </c>
+      <c r="U12" s="19">
+        <v>0</v>
+      </c>
+      <c r="V12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="20">
+      <c r="C13" s="33"/>
+      <c r="D13" s="7">
         <v>0.98977000000000004</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E13" s="8">
         <v>0.94089999999999996</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F13" s="22">
         <v>1.1805555555555556E-3</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G13" s="23">
         <v>1.1342592592592591E-3</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="20">
+      <c r="H13" s="1"/>
+      <c r="I13" s="7">
         <v>0.9909</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J13" s="8">
         <v>0.91359999999999997</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K13" s="15">
         <v>3.4027777777777784E-3</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L13" s="16">
         <v>3.3449074074074071E-3</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="20">
+      <c r="C14" s="33"/>
+      <c r="D14" s="7">
         <v>0.84609999999999996</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E14" s="8">
         <v>0.82669999999999999</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F14" s="22">
         <v>4.5138888888888892E-4</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G14" s="23">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="20">
+      <c r="H14" s="1"/>
+      <c r="I14" s="7">
         <v>0.84609999999999996</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J14" s="8">
         <v>0.82150000000000001</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K14" s="15">
         <v>8.9120370370370362E-4</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L14" s="16">
         <v>8.7962962962962962E-4</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <v>0</v>
+      </c>
+      <c r="V14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="24">
+      <c r="C15" s="35"/>
+      <c r="D15" s="11">
         <v>0.90710000000000002</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E15" s="12">
         <v>0.6</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F15" s="24">
         <v>9.2592592592592588E-5</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G15" s="25">
         <v>9.2592592592592588E-5</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="24">
+      <c r="H15" s="1"/>
+      <c r="I15" s="11">
         <v>0.88180000000000003</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J15" s="12">
         <v>0.61660000000000004</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K15" s="17">
         <v>1.2962962962962963E-3</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L15" s="18">
         <v>1.2847222222222223E-3</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>0</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0</v>
+      </c>
+      <c r="T15" s="12">
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <v>0</v>
+      </c>
+      <c r="V15" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="41">
-        <f>AVERAGE(D5:D13)</f>
+      <c r="C17" s="37"/>
+      <c r="D17" s="28">
+        <f>AVERAGE(D7:D15)</f>
         <v>0.89813000000000009</v>
       </c>
-      <c r="E15" s="43">
-        <f t="shared" ref="E15:J15" si="0">AVERAGE(E5:E13)</f>
+      <c r="E17" s="30">
+        <f t="shared" ref="E17:J17" si="0">AVERAGE(E7:E15)</f>
         <v>0.83033666666666661</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="45">
-        <f>AVERAGE(G5:G13)</f>
+      <c r="F17" s="29"/>
+      <c r="G17" s="31">
+        <f>AVERAGE(G7:G15)</f>
         <v>2.3533950617283947E-4</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="41">
+      <c r="H17" s="29"/>
+      <c r="I17" s="28">
         <f t="shared" si="0"/>
         <v>0.89586666666666659</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J17" s="30">
         <f t="shared" si="0"/>
         <v>0.81765999999999994</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="45">
-        <f>AVERAGE(L5:L13)</f>
+      <c r="K17" s="1"/>
+      <c r="L17" s="31">
+        <f>AVERAGE(L7:L15)</f>
         <v>8.0375514403292173E-4</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="44" t="s">
+      <c r="N17" s="28">
+        <f>AVERAGE(N7:N15)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="30">
+        <f t="shared" ref="N17:Q17" si="1">AVERAGE(O7:O15)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="31">
+        <f>AVERAGE(Q7:Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="28">
+        <f>AVERAGE(S7:S15)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="30">
+        <f t="shared" ref="T17:V17" si="2">AVERAGE(T7:T15)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="31">
+        <f>AVERAGE(V7:V15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D19" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="8" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="2" t="s">
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+    </row>
+    <row r="21" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="2" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="22">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="9">
         <v>0.97499999999999998</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E22" s="10">
         <v>1</v>
       </c>
-      <c r="F20" s="39">
-        <v>0</v>
-      </c>
-      <c r="G20" s="40">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="22">
+      <c r="F22" s="26">
+        <v>0</v>
+      </c>
+      <c r="G22" s="27">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="9">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J22" s="10">
         <v>1</v>
       </c>
-      <c r="K20" s="26">
-        <v>0</v>
-      </c>
-      <c r="L20" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="20">
+      <c r="C23" s="33"/>
+      <c r="D23" s="7">
         <v>0.91417899999999996</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E23" s="8">
         <v>0.69116999999999995</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F23" s="19">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G23" s="20">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="20">
+      <c r="H23" s="1"/>
+      <c r="I23" s="7">
         <v>0.92537000000000003</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J23" s="8">
         <v>0.76470000000000005</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K23" s="15">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L23" s="16">
         <v>2.5462962962962961E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="20">
+      <c r="C24" s="33"/>
+      <c r="D24" s="7">
         <v>0.84689999999999999</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E24" s="8">
         <v>0.79220000000000002</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F24" s="19">
         <v>1.6203703703703703E-4</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G24" s="20">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="20">
+      <c r="H24" s="1"/>
+      <c r="I24" s="7">
         <v>0.83875999999999995</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J24" s="8">
         <v>0.75973999999999997</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K24" s="15">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L24" s="16">
         <v>4.3981481481481481E-4</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="20">
+      <c r="C25" s="33"/>
+      <c r="D25" s="7">
         <v>0.63183999999999996</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E25" s="8">
         <v>0.57238999999999995</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F25" s="19">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G25" s="20">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="34">
+      <c r="H25" s="1"/>
+      <c r="I25" s="21">
         <v>0.63437200000000005</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J25" s="8">
         <v>0.57911999999999997</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K25" s="15">
         <v>5.6712962962962956E-4</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L25" s="16">
         <v>5.5555555555555556E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="20">
+      <c r="C26" s="33"/>
+      <c r="D26" s="7">
         <v>0.96347000000000005</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E26" s="8">
         <v>0.97272700000000001</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F26" s="19">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G26" s="20">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="20">
+      <c r="H26" s="1"/>
+      <c r="I26" s="7">
         <v>0.96575299999999997</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J26" s="8">
         <v>0.96363600000000005</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K26" s="15">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L26" s="16">
         <v>2.5462962962962961E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="20">
+      <c r="C27" s="33"/>
+      <c r="D27" s="7">
         <v>1</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E27" s="8">
         <v>0.88888</v>
       </c>
-      <c r="F25" s="32">
-        <v>0</v>
-      </c>
-      <c r="G25" s="33">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="20">
+      <c r="F27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="7">
         <v>1</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J27" s="8">
         <v>0.91659999999999997</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K27" s="19">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L27" s="20">
         <v>2.0833333333333335E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="20">
+      <c r="C28" s="33"/>
+      <c r="D28" s="7">
         <v>0.98522699999999996</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E28" s="8">
         <v>0.92269999999999996</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F28" s="22">
         <v>5.9027777777777778E-4</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G28" s="23">
         <v>5.4398148148148144E-4</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="20">
+      <c r="H28" s="1"/>
+      <c r="I28" s="7">
         <v>0.98409000000000002</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J28" s="8">
         <v>0.89545399999999997</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K28" s="15">
         <v>3.1712962962962958E-3</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L28" s="16">
         <v>3.1134259259259257E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="20">
+      <c r="C29" s="33"/>
+      <c r="D29" s="7">
         <v>0.83103000000000005</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E29" s="8">
         <v>0.80313999999999997</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F29" s="22">
         <v>4.0509259259259258E-4</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G29" s="23">
         <v>4.0509259259259258E-4</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="20">
+      <c r="H29" s="1"/>
+      <c r="I29" s="7">
         <v>0.83431900000000003</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J29" s="8">
         <v>0.81100000000000005</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K29" s="15">
         <v>9.7222222222222209E-4</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L29" s="16">
         <v>9.6064814814814808E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="24">
+      <c r="C30" s="35"/>
+      <c r="D30" s="11">
         <v>0.91139000000000003</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E30" s="12">
         <v>0.56666000000000005</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F30" s="24">
         <v>1.6203703703703703E-4</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G30" s="25">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="24">
+      <c r="H30" s="1"/>
+      <c r="I30" s="11">
         <v>0.89451000000000003</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J30" s="12">
         <v>0.56666000000000005</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K30" s="17">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L30" s="18">
         <v>1.261574074074074E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="41">
-        <f>AVERAGE(D20:D28)</f>
+      <c r="C32" s="37"/>
+      <c r="D32" s="28">
+        <f>AVERAGE(D22:D30)</f>
         <v>0.89544844444444449</v>
       </c>
-      <c r="E30" s="43">
-        <f t="shared" ref="E30:J30" si="1">AVERAGE(E20:E28)</f>
+      <c r="E32" s="30">
+        <f t="shared" ref="E32" si="3">AVERAGE(E22:E30)</f>
         <v>0.8010963333333333</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="45">
-        <f>AVERAGE(G20:G28)</f>
+      <c r="F32" s="29"/>
+      <c r="G32" s="31">
+        <f>AVERAGE(G22:G30)</f>
         <v>1.7618312757201643E-4</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="41">
-        <f t="shared" ref="I30:L30" si="2">AVERAGE(I20:I28)</f>
+      <c r="H32" s="29"/>
+      <c r="I32" s="28">
+        <f t="shared" ref="I32:J32" si="4">AVERAGE(I22:I30)</f>
         <v>0.89468600000000009</v>
       </c>
-      <c r="J30" s="43">
-        <f t="shared" si="2"/>
+      <c r="J32" s="30">
+        <f t="shared" si="4"/>
         <v>0.80632333333333328</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="45">
-        <f>AVERAGE(L20:L28)</f>
+      <c r="K32" s="1"/>
+      <c r="L32" s="31">
+        <f>AVERAGE(L22:L30)</f>
         <v>7.831790123456789E-4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+  <mergeCells count="33">
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D19:L19"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1677,7 +2056,7 @@
   <dimension ref="A3:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,235 +2066,236 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="48" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="54">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="55">
         <v>297</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="55">
         <v>13</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="56">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="54">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="55">
         <v>336</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="55">
         <v>7</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="56">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="49" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="54">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="55">
         <v>150</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="55">
         <v>4</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="56">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="54">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="55">
         <v>19020</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="55">
         <v>10</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="56">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="54">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="55">
         <v>5472</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="55">
         <v>10</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="56">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="49" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="54">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="55">
         <v>10992</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="55">
         <v>16</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="56">
         <v>10</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="54">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="55">
         <v>768</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="55">
         <v>8</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="56">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="49" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="54">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="55">
         <v>178</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="55">
         <v>13</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="56">
         <v>3</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="57">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="59">
         <v>1484</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="59">
         <v>8</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="60">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="49" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
+      <c r="H13" s="50" t="s">
         <v>48</v>
       </c>
     </row>

--- a/Docs/Resultados.xlsx
+++ b/Docs/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oier\Desktop\TFG\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TFG\TFG\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A67184D-CEFD-453F-891D-3A7FCB39A20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47362BA8-3861-43B4-BF80-6AAC1B4FA5CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01D94149-3744-4B0D-BD6F-37A5A8AA1927}"/>
+    <workbookView xWindow="2325" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{01D94149-3744-4B0D-BD6F-37A5A8AA1927}"/>
   </bookViews>
   <sheets>
     <sheet name="Rendimiento" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>Iris</t>
   </si>
@@ -242,7 +242,13 @@
     <t>Nº iteraciones = 20000</t>
   </si>
   <si>
-    <t>L modificado</t>
+    <t>L modificado (…/2)</t>
+  </si>
+  <si>
+    <t>Nº iter = n_var*5000</t>
+  </si>
+  <si>
+    <t>Nº iter</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -529,53 +535,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -602,6 +563,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,88 +937,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A29AC6-A075-4882-9928-4C14C2F21FD5}">
-  <dimension ref="B3:V32"/>
+  <dimension ref="B3:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F3" s="45" t="s">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="G3" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="O3" s="45" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="62"/>
+      <c r="Q3" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
       <c r="U3" s="47"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D4" s="38" t="s">
+      <c r="V3" s="47"/>
+      <c r="W3" s="48"/>
+      <c r="AB3" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="67"/>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D4" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="T4" s="34" t="s">
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="V4" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="35"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="W4" s="51"/>
+      <c r="AB4" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="51"/>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="42" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="N5" s="42" t="s">
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="P5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="S5" s="42" t="s">
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="U5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-    </row>
-    <row r="6" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+    </row>
+    <row r="6" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1006,545 +1049,793 @@
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE6" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B7" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="9">
         <v>0.97499999999999998</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="63">
+        <v>14000</v>
+      </c>
+      <c r="G7" s="26">
         <v>0</v>
       </c>
-      <c r="G7" s="27">
+      <c r="H7" s="27">
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="9">
+      <c r="I7" s="1"/>
+      <c r="J7" s="9">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K7" s="10">
         <v>1</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="63">
+        <v>14000</v>
+      </c>
+      <c r="M7" s="13">
         <v>0</v>
       </c>
-      <c r="L7" s="14">
+      <c r="N7" s="14">
         <v>0</v>
       </c>
-      <c r="N7" s="9">
+      <c r="P7" s="9">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>1</v>
+      </c>
+      <c r="R7" s="13">
         <v>0</v>
       </c>
-      <c r="O7" s="10">
+      <c r="S7" s="14">
         <v>0</v>
       </c>
-      <c r="P7" s="13">
+      <c r="U7" s="9">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0.96665999999999996</v>
+      </c>
+      <c r="W7" s="13">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="X7" s="14">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="Y7" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="Q7" s="14">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7" s="10">
-        <v>0</v>
-      </c>
-      <c r="U7" s="13">
-        <v>0</v>
-      </c>
-      <c r="V7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="9">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>0.96665999999999996</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="AE7" s="68">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B8" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="7">
         <v>0.92910000000000004</v>
       </c>
       <c r="E8" s="8">
         <v>0.83819999999999995</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="64">
+        <v>35000</v>
+      </c>
+      <c r="G8" s="19">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="G8" s="20">
+      <c r="H8" s="20">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="7">
+      <c r="I8" s="1"/>
+      <c r="J8" s="7">
         <v>0.92164000000000001</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>0.80881999999999998</v>
       </c>
-      <c r="K8" s="15">
+      <c r="L8" s="64">
+        <v>35000</v>
+      </c>
+      <c r="M8" s="15">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="L8" s="16">
+      <c r="N8" s="16">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="15">
-        <v>0</v>
-      </c>
-      <c r="V8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
+      <c r="P8" s="7">
+        <v>0.92164000000000001</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="R8" s="15">
+        <v>1.5046296296296297E-4</v>
+      </c>
+      <c r="S8" s="16">
+        <v>1.3888888888888889E-4</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0.91417899999999996</v>
+      </c>
+      <c r="V8" s="8">
+        <v>0.79410999999999998</v>
+      </c>
+      <c r="W8" s="15">
+        <v>2.3148148148148146E-4</v>
+      </c>
+      <c r="X8" s="16">
+        <v>2.3148148148148146E-4</v>
+      </c>
+      <c r="Y8" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="7">
+        <v>0.91791</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>0.83823000000000003</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>4.3981481481481481E-4</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>4.2824074074074075E-4</v>
+      </c>
+      <c r="AE8" s="69">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B9" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="7">
         <v>0.82569999999999999</v>
       </c>
       <c r="E9" s="8">
         <v>0.75319999999999998</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="64">
+        <v>40000</v>
+      </c>
+      <c r="G9" s="19">
         <v>1.6203703703703703E-4</v>
       </c>
-      <c r="G9" s="20">
+      <c r="H9" s="20">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="7">
+      <c r="I9" s="1"/>
+      <c r="J9" s="7">
         <v>0.82735999999999998</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>0.77922000000000002</v>
       </c>
-      <c r="K9" s="15">
+      <c r="L9" s="64">
+        <v>40000</v>
+      </c>
+      <c r="M9" s="15">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="L9" s="16">
+      <c r="N9" s="16">
         <v>4.2824074074074075E-4</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0</v>
-      </c>
-      <c r="U9" s="15">
-        <v>0</v>
-      </c>
-      <c r="V9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+      <c r="P9" s="7">
+        <v>0.82735999999999998</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0.77922000000000002</v>
+      </c>
+      <c r="R9" s="15">
+        <v>2.3148148148148146E-4</v>
+      </c>
+      <c r="S9" s="16">
+        <v>2.199074074074074E-4</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0.82084000000000001</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0.79869999999999997</v>
+      </c>
+      <c r="W9" s="15">
+        <v>3.5879629629629635E-4</v>
+      </c>
+      <c r="X9" s="16">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="Y9" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="7">
+        <v>0.82084000000000001</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>0.79869999999999997</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>5.4398148148148144E-4</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>5.3240740740740744E-4</v>
+      </c>
+      <c r="AE9" s="69">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B10" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="7">
         <v>0.64700000000000002</v>
       </c>
       <c r="E10" s="8">
         <v>0.60599999999999998</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="64">
+        <v>40000</v>
+      </c>
+      <c r="G10" s="19">
         <v>2.4305555555555552E-4</v>
       </c>
-      <c r="G10" s="20">
+      <c r="H10" s="20">
         <v>2.4305555555555552E-4</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="21">
+      <c r="I10" s="1"/>
+      <c r="J10" s="21">
         <v>0.65200000000000002</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>0.61270000000000002</v>
       </c>
-      <c r="K10" s="15">
+      <c r="L10" s="64">
+        <v>40000</v>
+      </c>
+      <c r="M10" s="15">
         <v>5.9027777777777778E-4</v>
       </c>
-      <c r="L10" s="16">
+      <c r="N10" s="16">
         <v>5.7870370370370378E-4</v>
       </c>
-      <c r="N10" s="21">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>0</v>
-      </c>
-      <c r="S10" s="21">
-        <v>0</v>
-      </c>
-      <c r="T10" s="8">
-        <v>0</v>
-      </c>
-      <c r="U10" s="15">
-        <v>0</v>
-      </c>
-      <c r="V10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
+      <c r="P10" s="21">
+        <v>0.65206399999999998</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0.61278999999999995</v>
+      </c>
+      <c r="R10" s="15">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="S10" s="16">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="U10" s="21">
+        <v>0.64278999999999997</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0.60268999999999995</v>
+      </c>
+      <c r="W10" s="15">
+        <v>4.5138888888888892E-4</v>
+      </c>
+      <c r="X10" s="16">
+        <v>4.3981481481481481E-4</v>
+      </c>
+      <c r="Y10" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="21">
+        <v>0.64529999999999998</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>7.0601851851851847E-4</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="AE10" s="69">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B11" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="7">
         <v>0.96340000000000003</v>
       </c>
       <c r="E11" s="8">
         <v>0.96362999999999999</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="64">
+        <v>50000</v>
+      </c>
+      <c r="G11" s="19">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G11" s="20">
+      <c r="H11" s="20">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="7">
+      <c r="I11" s="1"/>
+      <c r="J11" s="7">
         <v>0.96799999999999997</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>0.94540000000000002</v>
       </c>
-      <c r="K11" s="15">
+      <c r="L11" s="64">
+        <v>50000</v>
+      </c>
+      <c r="M11" s="15">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="L11" s="16">
+      <c r="N11" s="16">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8">
-        <v>0</v>
-      </c>
-      <c r="U11" s="15">
-        <v>0</v>
-      </c>
-      <c r="V11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
+      <c r="P11" s="7">
+        <v>0.96802999999999995</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="R11" s="15">
+        <v>1.0416666666666667E-4</v>
+      </c>
+      <c r="S11" s="16">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0.96347000000000005</v>
+      </c>
+      <c r="V11" s="8">
+        <v>0.96363600000000005</v>
+      </c>
+      <c r="W11" s="15">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="X11" s="16">
+        <v>1.9675925925925926E-4</v>
+      </c>
+      <c r="Y11" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="7">
+        <v>0.96347000000000005</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>0.96362999999999999</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>4.2824074074074075E-4</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>4.1666666666666669E-4</v>
+      </c>
+      <c r="AE11" s="69">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B12" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" s="8">
         <v>0.94440000000000002</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="64">
+        <v>60000</v>
+      </c>
+      <c r="G12" s="19">
         <v>0</v>
       </c>
-      <c r="G12" s="20">
+      <c r="H12" s="20">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="7">
+      <c r="I12" s="1"/>
+      <c r="J12" s="7">
         <v>1</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>0.86109999999999998</v>
       </c>
-      <c r="K12" s="19">
+      <c r="L12" s="64">
+        <v>60000</v>
+      </c>
+      <c r="M12" s="19">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="L12" s="20">
+      <c r="N12" s="20">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>0</v>
-      </c>
-      <c r="U12" s="19">
-        <v>0</v>
-      </c>
-      <c r="V12" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0.86111000000000004</v>
+      </c>
+      <c r="R12" s="19">
+        <v>6.9444444444444444E-5</v>
+      </c>
+      <c r="S12" s="20">
+        <v>6.9444444444444444E-5</v>
+      </c>
+      <c r="U12" s="7">
+        <v>1</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0.97221999999999997</v>
+      </c>
+      <c r="W12" s="19">
+        <v>1.3888888888888889E-4</v>
+      </c>
+      <c r="X12" s="20">
+        <v>1.3888888888888889E-4</v>
+      </c>
+      <c r="Y12" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>0.97221999999999997</v>
+      </c>
+      <c r="AC12" s="19">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="AD12" s="20">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="AE12" s="69">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B13" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="7">
         <v>0.98977000000000004</v>
       </c>
       <c r="E13" s="8">
         <v>0.94089999999999996</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="64">
+        <v>80000</v>
+      </c>
+      <c r="G13" s="22">
         <v>1.1805555555555556E-3</v>
       </c>
-      <c r="G13" s="23">
+      <c r="H13" s="23">
         <v>1.1342592592592591E-3</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="7">
+      <c r="I13" s="1"/>
+      <c r="J13" s="7">
         <v>0.9909</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>0.91359999999999997</v>
       </c>
-      <c r="K13" s="15">
+      <c r="L13" s="64">
+        <v>80000</v>
+      </c>
+      <c r="M13" s="15">
         <v>3.4027777777777784E-3</v>
       </c>
-      <c r="L13" s="16">
+      <c r="N13" s="16">
         <v>3.3449074074074071E-3</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7">
-        <v>0</v>
-      </c>
-      <c r="T13" s="8">
-        <v>0</v>
-      </c>
-      <c r="U13" s="15">
-        <v>0</v>
-      </c>
-      <c r="V13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
+      <c r="P13" s="7">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0.89545399999999997</v>
+      </c>
+      <c r="R13" s="15">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="S13" s="16">
+        <v>9.8379629629629642E-4</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0.98409000000000002</v>
+      </c>
+      <c r="V13" s="8">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="W13" s="15">
+        <v>3.0902777777777782E-3</v>
+      </c>
+      <c r="X13" s="16">
+        <v>3.0324074074074073E-3</v>
+      </c>
+      <c r="Y13" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="7">
+        <v>0.98521999999999998</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>0.95909</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>5.4745370370370373E-3</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>5.4166666666666669E-3</v>
+      </c>
+      <c r="AE13" s="69">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B14" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="7">
         <v>0.84609999999999996</v>
       </c>
       <c r="E14" s="8">
         <v>0.82669999999999999</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="64">
+        <v>50000</v>
+      </c>
+      <c r="G14" s="22">
         <v>4.5138888888888892E-4</v>
       </c>
-      <c r="G14" s="23">
+      <c r="H14" s="23">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="7">
+      <c r="I14" s="1"/>
+      <c r="J14" s="7">
         <v>0.84609999999999996</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <v>0.82150000000000001</v>
       </c>
-      <c r="K14" s="15">
+      <c r="L14" s="64">
+        <v>50000</v>
+      </c>
+      <c r="M14" s="15">
         <v>8.9120370370370362E-4</v>
       </c>
-      <c r="L14" s="16">
+      <c r="N14" s="16">
         <v>8.7962962962962962E-4</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0</v>
-      </c>
-      <c r="T14" s="8">
-        <v>0</v>
-      </c>
-      <c r="U14" s="15">
-        <v>0</v>
-      </c>
-      <c r="V14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="P14" s="7">
+        <v>0.84548999999999996</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.81889699999999999</v>
+      </c>
+      <c r="R14" s="15">
+        <v>3.9351851851851852E-4</v>
+      </c>
+      <c r="S14" s="16">
+        <v>3.8194444444444446E-4</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0.84418000000000004</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0.81364000000000003</v>
+      </c>
+      <c r="W14" s="15">
+        <v>6.5972222222222213E-4</v>
+      </c>
+      <c r="X14" s="16">
+        <v>6.4814814814814813E-4</v>
+      </c>
+      <c r="Y14" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="7">
+        <v>0.84418000000000004</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>0.81364000000000003</v>
+      </c>
+      <c r="AC14" s="15">
+        <v>1.1342592592592591E-3</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>1.1226851851851851E-3</v>
+      </c>
+      <c r="AE14" s="69">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B15" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="11">
         <v>0.90710000000000002</v>
       </c>
       <c r="E15" s="12">
         <v>0.6</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="65">
+        <v>65000</v>
+      </c>
+      <c r="G15" s="24">
         <v>9.2592592592592588E-5</v>
       </c>
-      <c r="G15" s="25">
+      <c r="H15" s="25">
         <v>9.2592592592592588E-5</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="11">
+      <c r="I15" s="1"/>
+      <c r="J15" s="11">
         <v>0.88180000000000003</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="12">
         <v>0.61660000000000004</v>
       </c>
-      <c r="K15" s="17">
+      <c r="L15" s="65">
+        <v>65000</v>
+      </c>
+      <c r="M15" s="17">
         <v>1.2962962962962963E-3</v>
       </c>
-      <c r="L15" s="18">
+      <c r="N15" s="18">
         <v>1.2847222222222223E-3</v>
       </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-      <c r="O15" s="12">
-        <v>0</v>
-      </c>
-      <c r="P15" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>0</v>
-      </c>
-      <c r="S15" s="11">
-        <v>0</v>
-      </c>
-      <c r="T15" s="12">
-        <v>0</v>
-      </c>
-      <c r="U15" s="17">
-        <v>0</v>
-      </c>
-      <c r="V15" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P15" s="11">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="R15" s="17">
+        <v>4.8611111111111104E-4</v>
+      </c>
+      <c r="S15" s="18">
+        <v>4.6296296296296293E-4</v>
+      </c>
+      <c r="U15" s="11">
+        <v>0.89873000000000003</v>
+      </c>
+      <c r="V15" s="12">
+        <v>0.61665999999999999</v>
+      </c>
+      <c r="W15" s="17">
+        <v>1.5162037037037036E-3</v>
+      </c>
+      <c r="X15" s="18">
+        <v>1.4930555555555556E-3</v>
+      </c>
+      <c r="Y15" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="11">
+        <v>0.90295000000000003</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>0.61665999999999999</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>2.3148148148148151E-3</v>
+      </c>
+      <c r="AD15" s="18">
+        <v>2.3148148148148151E-3</v>
+      </c>
+      <c r="AE15" s="70">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1556,109 +1847,138 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="36" t="s">
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B17" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="28">
         <f>AVERAGE(D7:D15)</f>
         <v>0.89813000000000009</v>
       </c>
       <c r="E17" s="30">
-        <f t="shared" ref="E17:J17" si="0">AVERAGE(E7:E15)</f>
+        <f t="shared" ref="E17:K17" si="0">AVERAGE(E7:E15)</f>
         <v>0.83033666666666661</v>
       </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="31">
-        <f>AVERAGE(G7:G15)</f>
+      <c r="G17" s="29"/>
+      <c r="H17" s="31">
+        <f>AVERAGE(H7:H15)</f>
         <v>2.3533950617283947E-4</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="28">
+      <c r="I17" s="29"/>
+      <c r="J17" s="28">
         <f t="shared" si="0"/>
         <v>0.89586666666666659</v>
       </c>
-      <c r="J17" s="30">
+      <c r="K17" s="30">
         <f t="shared" si="0"/>
         <v>0.81765999999999994</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="31">
-        <f>AVERAGE(L7:L15)</f>
+      <c r="L17" s="29"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="31">
+        <f>AVERAGE(N7:N15)</f>
         <v>8.0375514403292173E-4</v>
       </c>
-      <c r="N17" s="28">
-        <f>AVERAGE(N7:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="30">
-        <f t="shared" ref="N17:Q17" si="1">AVERAGE(O7:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="31">
-        <f>AVERAGE(Q7:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="28">
+      <c r="P17" s="28">
+        <f>AVERAGE(P7:P15)</f>
+        <v>0.89496488888888892</v>
+      </c>
+      <c r="Q17" s="30">
+        <f t="shared" ref="Q17" si="1">AVERAGE(Q7:Q15)</f>
+        <v>0.81351899999999988</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="31">
         <f>AVERAGE(S7:S15)</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="30">
-        <f t="shared" ref="T17:V17" si="2">AVERAGE(T7:T15)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="31">
-        <f>AVERAGE(V7:V15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D19" s="38" t="s">
+        <v>2.9578189300411521E-4</v>
+      </c>
+      <c r="U17" s="28">
+        <f>AVERAGE(U7:U15)</f>
+        <v>0.89369766666666672</v>
+      </c>
+      <c r="V17" s="30">
+        <f t="shared" ref="V17" si="2">AVERAGE(V7:V15)</f>
+        <v>0.82991288888888903</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="31">
+        <f>AVERAGE(X7:X15)</f>
+        <v>7.265946502057612E-4</v>
+      </c>
+      <c r="Y17" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="28">
+        <f>AVERAGE(AA7:AA15)</f>
+        <v>0.89498555555555548</v>
+      </c>
+      <c r="AB17" s="30">
+        <f t="shared" ref="AB17" si="3">AVERAGE(AB7:AB15)</f>
+        <v>0.83758111111111111</v>
+      </c>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="31">
+        <f>AVERAGE(AD7:AD15)</f>
+        <v>1.253858024691358E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="D19" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B20" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="42" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="42" t="s">
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-    </row>
-    <row r="21" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+    </row>
+    <row r="21" spans="2:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1666,305 +1986,365 @@
         <v>12</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="43" t="s">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B22" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="44"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="9">
         <v>0.97499999999999998</v>
       </c>
       <c r="E22" s="10">
         <v>1</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="63">
+        <v>14000</v>
+      </c>
+      <c r="G22" s="26">
         <v>0</v>
       </c>
-      <c r="G22" s="27">
+      <c r="H22" s="27">
         <v>0</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="9">
+      <c r="I22" s="1"/>
+      <c r="J22" s="9">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J22" s="10">
+      <c r="K22" s="10">
         <v>1</v>
       </c>
-      <c r="K22" s="13">
+      <c r="L22" s="63">
+        <v>12500</v>
+      </c>
+      <c r="M22" s="13">
         <v>0</v>
       </c>
-      <c r="L22" s="14">
+      <c r="N22" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B23" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="7">
         <v>0.91417899999999996</v>
       </c>
       <c r="E23" s="8">
         <v>0.69116999999999995</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="64">
+        <v>35000</v>
+      </c>
+      <c r="G23" s="19">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="G23" s="20">
+      <c r="H23" s="20">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="7">
+      <c r="I23" s="1"/>
+      <c r="J23" s="7">
         <v>0.92537000000000003</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <v>0.76470000000000005</v>
       </c>
-      <c r="K23" s="15">
+      <c r="L23" s="64">
+        <v>35000</v>
+      </c>
+      <c r="M23" s="15">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="L23" s="16">
+      <c r="N23" s="16">
         <v>2.5462962962962961E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B24" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="7">
         <v>0.84689999999999999</v>
       </c>
       <c r="E24" s="8">
         <v>0.79220000000000002</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="64">
+        <v>40000</v>
+      </c>
+      <c r="G24" s="19">
         <v>1.6203703703703703E-4</v>
       </c>
-      <c r="G24" s="20">
+      <c r="H24" s="20">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="7">
+      <c r="I24" s="1"/>
+      <c r="J24" s="7">
         <v>0.83875999999999995</v>
       </c>
-      <c r="J24" s="8">
+      <c r="K24" s="8">
         <v>0.75973999999999997</v>
       </c>
-      <c r="K24" s="15">
+      <c r="L24" s="64">
+        <v>40000</v>
+      </c>
+      <c r="M24" s="15">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="L24" s="16">
+      <c r="N24" s="16">
         <v>4.3981481481481481E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="32" t="s">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B25" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="7">
         <v>0.63183999999999996</v>
       </c>
       <c r="E25" s="8">
         <v>0.57238999999999995</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="64">
+        <v>40000</v>
+      </c>
+      <c r="G25" s="19">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="G25" s="20">
+      <c r="H25" s="20">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="21">
+      <c r="I25" s="1"/>
+      <c r="J25" s="21">
         <v>0.63437200000000005</v>
       </c>
-      <c r="J25" s="8">
+      <c r="K25" s="8">
         <v>0.57911999999999997</v>
       </c>
-      <c r="K25" s="15">
+      <c r="L25" s="64">
+        <v>40000</v>
+      </c>
+      <c r="M25" s="15">
         <v>5.6712962962962956E-4</v>
       </c>
-      <c r="L25" s="16">
+      <c r="N25" s="16">
         <v>5.5555555555555556E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="32" t="s">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B26" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="33"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="7">
         <v>0.96347000000000005</v>
       </c>
       <c r="E26" s="8">
         <v>0.97272700000000001</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="64">
+        <v>50000</v>
+      </c>
+      <c r="G26" s="19">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="G26" s="20">
+      <c r="H26" s="20">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="7">
+      <c r="I26" s="1"/>
+      <c r="J26" s="7">
         <v>0.96575299999999997</v>
       </c>
-      <c r="J26" s="8">
+      <c r="K26" s="8">
         <v>0.96363600000000005</v>
       </c>
-      <c r="K26" s="15">
+      <c r="L26" s="64">
+        <v>50000</v>
+      </c>
+      <c r="M26" s="15">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="L26" s="16">
+      <c r="N26" s="16">
         <v>2.5462962962962961E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="32" t="s">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B27" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="7">
         <v>1</v>
       </c>
       <c r="E27" s="8">
         <v>0.88888</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="64">
+        <v>60000</v>
+      </c>
+      <c r="G27" s="19">
         <v>0</v>
       </c>
-      <c r="G27" s="20">
+      <c r="H27" s="20">
         <v>0</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="7">
+      <c r="I27" s="1"/>
+      <c r="J27" s="7">
         <v>1</v>
       </c>
-      <c r="J27" s="8">
+      <c r="K27" s="8">
         <v>0.91659999999999997</v>
       </c>
-      <c r="K27" s="19">
+      <c r="L27" s="64">
+        <v>60000</v>
+      </c>
+      <c r="M27" s="19">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="L27" s="20">
+      <c r="N27" s="20">
         <v>2.0833333333333335E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="32" t="s">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B28" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="7">
         <v>0.98522699999999996</v>
       </c>
       <c r="E28" s="8">
         <v>0.92269999999999996</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="64">
+        <v>80000</v>
+      </c>
+      <c r="G28" s="22">
         <v>5.9027777777777778E-4</v>
       </c>
-      <c r="G28" s="23">
+      <c r="H28" s="23">
         <v>5.4398148148148144E-4</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="7">
+      <c r="I28" s="1"/>
+      <c r="J28" s="7">
         <v>0.98409000000000002</v>
       </c>
-      <c r="J28" s="8">
+      <c r="K28" s="8">
         <v>0.89545399999999997</v>
       </c>
-      <c r="K28" s="15">
+      <c r="L28" s="64">
+        <v>80000</v>
+      </c>
+      <c r="M28" s="15">
         <v>3.1712962962962958E-3</v>
       </c>
-      <c r="L28" s="16">
+      <c r="N28" s="16">
         <v>3.1134259259259257E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="32" t="s">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B29" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="7">
         <v>0.83103000000000005</v>
       </c>
       <c r="E29" s="8">
         <v>0.80313999999999997</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="64">
+        <v>50000</v>
+      </c>
+      <c r="G29" s="22">
         <v>4.0509259259259258E-4</v>
       </c>
-      <c r="G29" s="23">
+      <c r="H29" s="23">
         <v>4.0509259259259258E-4</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="7">
+      <c r="I29" s="1"/>
+      <c r="J29" s="7">
         <v>0.83431900000000003</v>
       </c>
-      <c r="J29" s="8">
+      <c r="K29" s="8">
         <v>0.81100000000000005</v>
       </c>
-      <c r="K29" s="15">
+      <c r="L29" s="64">
+        <v>50000</v>
+      </c>
+      <c r="M29" s="15">
         <v>9.7222222222222209E-4</v>
       </c>
-      <c r="L29" s="16">
+      <c r="N29" s="16">
         <v>9.6064814814814808E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B30" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="11">
         <v>0.91139000000000003</v>
       </c>
       <c r="E30" s="12">
         <v>0.56666000000000005</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="65">
+        <v>65000</v>
+      </c>
+      <c r="G30" s="24">
         <v>1.6203703703703703E-4</v>
       </c>
-      <c r="G30" s="25">
+      <c r="H30" s="25">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="11">
+      <c r="I30" s="1"/>
+      <c r="J30" s="11">
         <v>0.89451000000000003</v>
       </c>
-      <c r="J30" s="12">
+      <c r="K30" s="12">
         <v>0.56666000000000005</v>
       </c>
-      <c r="K30" s="17">
+      <c r="L30" s="65">
+        <v>65000</v>
+      </c>
+      <c r="M30" s="17">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="L30" s="18">
+      <c r="N30" s="18">
         <v>1.261574074074074E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1976,49 +2356,75 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B32" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="37"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="28">
         <f>AVERAGE(D22:D30)</f>
         <v>0.89544844444444449</v>
       </c>
       <c r="E32" s="30">
-        <f t="shared" ref="E32" si="3">AVERAGE(E22:E30)</f>
+        <f t="shared" ref="E32" si="4">AVERAGE(E22:E30)</f>
         <v>0.8010963333333333</v>
       </c>
       <c r="F32" s="29"/>
-      <c r="G32" s="31">
-        <f>AVERAGE(G22:G30)</f>
+      <c r="G32" s="29"/>
+      <c r="H32" s="31">
+        <f>AVERAGE(H22:H30)</f>
         <v>1.7618312757201643E-4</v>
       </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="28">
-        <f t="shared" ref="I32:J32" si="4">AVERAGE(I22:I30)</f>
+      <c r="I32" s="29"/>
+      <c r="J32" s="28">
+        <f t="shared" ref="J32:K32" si="5">AVERAGE(J22:J30)</f>
         <v>0.89468600000000009</v>
       </c>
-      <c r="J32" s="30">
-        <f t="shared" si="4"/>
+      <c r="K32" s="30">
+        <f t="shared" si="5"/>
         <v>0.80632333333333328</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="31">
-        <f>AVERAGE(L22:L30)</f>
+      <c r="L32" s="29"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="31">
+        <f>AVERAGE(N22:N30)</f>
         <v>7.831790123456789E-4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:L5"/>
+  <mergeCells count="46">
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="D19:N19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2029,22 +2435,13 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="J5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2066,28 +2463,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="39">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2096,22 +2493,22 @@
       <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="40">
         <v>297</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="40">
         <v>13</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="41">
         <v>5</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="34" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+      <c r="A5" s="39">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2120,21 +2517,21 @@
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="40">
         <v>336</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="40">
         <v>7</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="41">
         <v>8</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="39">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2143,21 +2540,21 @@
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="40">
         <v>150</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="40">
         <v>4</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="41">
         <v>3</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
+      <c r="A7" s="39">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2166,21 +2563,21 @@
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="40">
         <v>19020</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="40">
         <v>10</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="41">
         <v>2</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="34" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="39">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2189,21 +2586,21 @@
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="40">
         <v>5472</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="40">
         <v>10</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="41">
         <v>5</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="34" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+      <c r="A9" s="39">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2212,21 +2609,21 @@
       <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="40">
         <v>10992</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="40">
         <v>16</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="41">
         <v>10</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="34" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="39">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2235,21 +2632,21 @@
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="40">
         <v>768</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="40">
         <v>8</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="41">
         <v>2</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
+      <c r="A11" s="39">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2258,44 +2655,44 @@
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="40">
         <v>178</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="40">
         <v>13</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="41">
         <v>3</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="57">
+      <c r="A12" s="42">
         <v>9</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="44">
         <v>1484</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="44">
         <v>8</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="45">
         <v>10</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="35" t="s">
         <v>48</v>
       </c>
     </row>
